--- a/data/pca/factorExposure/factorExposure_2017-08-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0242144231593258</v>
+        <v>0.007376810440192772</v>
       </c>
       <c r="C2">
-        <v>-0.00497513078325833</v>
+        <v>0.04233525399011201</v>
       </c>
       <c r="D2">
-        <v>0.01842153850705815</v>
+        <v>0.02977485381818968</v>
       </c>
       <c r="E2">
-        <v>0.009346638571302895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03193682803422365</v>
+      </c>
+      <c r="F2">
+        <v>-0.01688440183693158</v>
+      </c>
+      <c r="G2">
+        <v>-0.04594838295177524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01537473392374244</v>
+        <v>0.05573933716776231</v>
       </c>
       <c r="C3">
-        <v>-0.05510752052312046</v>
+        <v>0.06810354818224897</v>
       </c>
       <c r="D3">
-        <v>0.009192010370251073</v>
+        <v>0.01456155737064171</v>
       </c>
       <c r="E3">
-        <v>0.006826156805093768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09717979848432118</v>
+      </c>
+      <c r="F3">
+        <v>-0.03691146231467612</v>
+      </c>
+      <c r="G3">
+        <v>-0.1012172198094314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0229408998512713</v>
+        <v>0.05602318062167838</v>
       </c>
       <c r="C4">
-        <v>-0.02121228743171054</v>
+        <v>0.0636221432269682</v>
       </c>
       <c r="D4">
-        <v>0.06256612211786085</v>
+        <v>0.02336130076765017</v>
       </c>
       <c r="E4">
-        <v>-0.01506607522146162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01810315602294854</v>
+      </c>
+      <c r="F4">
+        <v>-0.006666475515811053</v>
+      </c>
+      <c r="G4">
+        <v>-0.05964082952379467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01488559183160615</v>
+        <v>0.03768800133316795</v>
       </c>
       <c r="C6">
-        <v>-0.01217594387715591</v>
+        <v>0.04955623095255616</v>
       </c>
       <c r="D6">
-        <v>0.08643257775874423</v>
+        <v>0.01556113137179341</v>
       </c>
       <c r="E6">
-        <v>-0.007620841201766294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01713904167656112</v>
+      </c>
+      <c r="F6">
+        <v>-0.01456574081945191</v>
+      </c>
+      <c r="G6">
+        <v>-0.0358593761229045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01066851686375665</v>
+        <v>0.01683010728994718</v>
       </c>
       <c r="C7">
-        <v>-0.005858376172808874</v>
+        <v>0.03636842167688112</v>
       </c>
       <c r="D7">
-        <v>0.03053969524232695</v>
+        <v>0.01328927917558383</v>
       </c>
       <c r="E7">
-        <v>-0.07523423181462832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.00876362633368572</v>
+      </c>
+      <c r="F7">
+        <v>-0.001935083973330774</v>
+      </c>
+      <c r="G7">
+        <v>-0.1013212577417163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>8.753481933283517e-05</v>
+        <v>-0.001593109360142785</v>
       </c>
       <c r="C8">
-        <v>-0.0003310639203911691</v>
+        <v>0.01925111737886467</v>
       </c>
       <c r="D8">
-        <v>0.006098308118867858</v>
+        <v>0.003901605203685048</v>
       </c>
       <c r="E8">
-        <v>-0.006849034174205147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02313007648268615</v>
+      </c>
+      <c r="F8">
+        <v>-0.01994333951519944</v>
+      </c>
+      <c r="G8">
+        <v>-0.031908600726835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01598531993941038</v>
+        <v>0.03305210819846455</v>
       </c>
       <c r="C9">
-        <v>-0.02285615289179514</v>
+        <v>0.04458529647495071</v>
       </c>
       <c r="D9">
-        <v>0.04731000396146121</v>
+        <v>0.01614510691983771</v>
       </c>
       <c r="E9">
-        <v>-0.005764014383281297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01317824978972791</v>
+      </c>
+      <c r="F9">
+        <v>-0.01369919897978747</v>
+      </c>
+      <c r="G9">
+        <v>-0.05684809253851746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01735261540654751</v>
+        <v>0.09161689249712431</v>
       </c>
       <c r="C10">
-        <v>-0.1590776455624916</v>
+        <v>-0.1843649663001065</v>
       </c>
       <c r="D10">
-        <v>-0.1205635574579764</v>
+        <v>-0.01751877704034946</v>
       </c>
       <c r="E10">
-        <v>-0.01471497273510476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009699961022600708</v>
+      </c>
+      <c r="F10">
+        <v>0.01809636554629203</v>
+      </c>
+      <c r="G10">
+        <v>-0.05007705934572004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006829658722550172</v>
+        <v>0.03216417905980049</v>
       </c>
       <c r="C11">
-        <v>-0.008998514989236536</v>
+        <v>0.0538548722635931</v>
       </c>
       <c r="D11">
-        <v>0.04177869160206707</v>
+        <v>0.002470869826795723</v>
       </c>
       <c r="E11">
-        <v>0.006577940207808725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007400943564851083</v>
+      </c>
+      <c r="F11">
+        <v>-0.02274875022402519</v>
+      </c>
+      <c r="G11">
+        <v>-0.03922295538445694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006232496181097415</v>
+        <v>0.03192141745081143</v>
       </c>
       <c r="C12">
-        <v>-0.01646014958057984</v>
+        <v>0.04575201196656346</v>
       </c>
       <c r="D12">
-        <v>0.04424005412483047</v>
+        <v>0.00625840674195192</v>
       </c>
       <c r="E12">
-        <v>-0.002371302383144831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001388764339668068</v>
+      </c>
+      <c r="F12">
+        <v>-0.005454703533677748</v>
+      </c>
+      <c r="G12">
+        <v>-0.03891275500111192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02230296624597455</v>
+        <v>0.01497174777660147</v>
       </c>
       <c r="C13">
-        <v>-0.01634373536877809</v>
+        <v>0.03156394770312869</v>
       </c>
       <c r="D13">
-        <v>0.00965480224976799</v>
+        <v>0.02507804288188541</v>
       </c>
       <c r="E13">
-        <v>0.00912424558728199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02311066694075912</v>
+      </c>
+      <c r="F13">
+        <v>-0.01215305405140137</v>
+      </c>
+      <c r="G13">
+        <v>-0.0551187118706452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007823181312425468</v>
+        <v>0.00845248529783821</v>
       </c>
       <c r="C14">
-        <v>-0.01567075477291958</v>
+        <v>0.02555402843847441</v>
       </c>
       <c r="D14">
-        <v>0.01241387210101656</v>
+        <v>0.008556529881604885</v>
       </c>
       <c r="E14">
-        <v>-0.01317911944199464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005799916536373438</v>
+      </c>
+      <c r="F14">
+        <v>0.004454849863610683</v>
+      </c>
+      <c r="G14">
+        <v>-0.05631131805552372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001473669338491644</v>
+        <v>0.03211394763758182</v>
       </c>
       <c r="C16">
-        <v>-0.01616067286409029</v>
+        <v>0.04447125761963629</v>
       </c>
       <c r="D16">
-        <v>0.04602329033123809</v>
+        <v>0.001738735648308122</v>
       </c>
       <c r="E16">
-        <v>-0.001747509963297845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005294885765191143</v>
+      </c>
+      <c r="F16">
+        <v>-0.008142358528224401</v>
+      </c>
+      <c r="G16">
+        <v>-0.03950395483883827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01387531410376822</v>
+        <v>0.02308782471325847</v>
       </c>
       <c r="C19">
-        <v>-0.02473555480910875</v>
+        <v>0.04866667084549196</v>
       </c>
       <c r="D19">
-        <v>0.01978351115082909</v>
+        <v>0.01648816250694245</v>
       </c>
       <c r="E19">
-        <v>-0.004862898080589832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05398726151563397</v>
+      </c>
+      <c r="F19">
+        <v>-0.02039497797306996</v>
+      </c>
+      <c r="G19">
+        <v>-0.06626748595211422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0109093634506395</v>
+        <v>0.01225001190260049</v>
       </c>
       <c r="C20">
-        <v>-0.01013292199506303</v>
+        <v>0.03267806138975837</v>
       </c>
       <c r="D20">
-        <v>0.009890170478826845</v>
+        <v>0.01318166380727189</v>
       </c>
       <c r="E20">
-        <v>-0.0001721426511058015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02377321458629549</v>
+      </c>
+      <c r="F20">
+        <v>0.00238129018196005</v>
+      </c>
+      <c r="G20">
+        <v>-0.0544898638579954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01525298356939174</v>
+        <v>0.01485493153364325</v>
       </c>
       <c r="C21">
-        <v>-0.03191250282591541</v>
+        <v>0.0340950324223588</v>
       </c>
       <c r="D21">
-        <v>0.01799746043370293</v>
+        <v>0.01654530004945045</v>
       </c>
       <c r="E21">
-        <v>-0.01840435667130223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03137072656216704</v>
+      </c>
+      <c r="F21">
+        <v>-0.001900342741591653</v>
+      </c>
+      <c r="G21">
+        <v>-0.07825771965136202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004659588038627168</v>
+        <v>0.02541297660119586</v>
       </c>
       <c r="C24">
-        <v>-0.003983848746441746</v>
+        <v>0.04833341116925718</v>
       </c>
       <c r="D24">
-        <v>0.04200645298852719</v>
+        <v>0.007313697530417107</v>
       </c>
       <c r="E24">
-        <v>0.0003506219553744417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003249380294230015</v>
+      </c>
+      <c r="F24">
+        <v>-0.02047008414818634</v>
+      </c>
+      <c r="G24">
+        <v>-0.04218535979765066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01226636513379487</v>
+        <v>0.0402215903938952</v>
       </c>
       <c r="C25">
-        <v>-0.02356962873705542</v>
+        <v>0.05477624975282224</v>
       </c>
       <c r="D25">
-        <v>0.04258634590974926</v>
+        <v>0.01127777160307257</v>
       </c>
       <c r="E25">
-        <v>0.000715394918998302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004629326591014253</v>
+      </c>
+      <c r="F25">
+        <v>-0.012453010537274</v>
+      </c>
+      <c r="G25">
+        <v>-0.04735469192197236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02313575598772207</v>
+        <v>0.01297845093804208</v>
       </c>
       <c r="C26">
-        <v>-0.01195096338040961</v>
+        <v>0.007527625456230938</v>
       </c>
       <c r="D26">
-        <v>-0.006524972958015509</v>
+        <v>0.02334291160941589</v>
       </c>
       <c r="E26">
-        <v>-0.008963750315823188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.00301674280869998</v>
+      </c>
+      <c r="F26">
+        <v>0.004159617687297694</v>
+      </c>
+      <c r="G26">
+        <v>-0.04342806727098292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03856331201157327</v>
+        <v>0.1190735490005426</v>
       </c>
       <c r="C28">
-        <v>-0.2303756691749625</v>
+        <v>-0.2316457928800597</v>
       </c>
       <c r="D28">
-        <v>-0.1736375253503218</v>
+        <v>-0.008664996542522691</v>
       </c>
       <c r="E28">
-        <v>-0.02324383235229691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0009321840127309968</v>
+      </c>
+      <c r="F28">
+        <v>0.01804123130999043</v>
+      </c>
+      <c r="G28">
+        <v>-0.06406315060430737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008131648116026418</v>
+        <v>0.0109686192532508</v>
       </c>
       <c r="C29">
-        <v>-0.02008136524844509</v>
+        <v>0.01915456143644945</v>
       </c>
       <c r="D29">
-        <v>0.009665825816262729</v>
+        <v>0.007322002679726808</v>
       </c>
       <c r="E29">
-        <v>-0.008196260997919645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.008343587990687984</v>
+      </c>
+      <c r="F29">
+        <v>0.01330148669304251</v>
+      </c>
+      <c r="G29">
+        <v>-0.04590597744724632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02370948593985289</v>
+        <v>0.04534726702400566</v>
       </c>
       <c r="C30">
-        <v>-0.007669767456094614</v>
+        <v>0.06275045043816097</v>
       </c>
       <c r="D30">
-        <v>0.06176342684083459</v>
+        <v>0.02783909941782832</v>
       </c>
       <c r="E30">
-        <v>0.05536030645900006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04462089857841398</v>
+      </c>
+      <c r="F30">
+        <v>-0.05353905868561109</v>
+      </c>
+      <c r="G30">
+        <v>-0.03284312801875514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009006275086797673</v>
+        <v>0.05012248406576009</v>
       </c>
       <c r="C31">
-        <v>-0.04328577674596017</v>
+        <v>0.03279071920944098</v>
       </c>
       <c r="D31">
-        <v>0.04316484351988016</v>
+        <v>0.003257175043585114</v>
       </c>
       <c r="E31">
-        <v>-0.01118076852111314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.007670505095828592</v>
+      </c>
+      <c r="F31">
+        <v>0.0370805909598081</v>
+      </c>
+      <c r="G31">
+        <v>-0.04663958817550787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00616386174425417</v>
+        <v>-0.003555938412243452</v>
       </c>
       <c r="C32">
-        <v>-0.02119679798688006</v>
+        <v>0.02806493500761651</v>
       </c>
       <c r="D32">
-        <v>-0.005011287949110184</v>
+        <v>-0.003972187230032228</v>
       </c>
       <c r="E32">
-        <v>-0.032536233471266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01550962099953002</v>
+      </c>
+      <c r="F32">
+        <v>-0.04577470408415382</v>
+      </c>
+      <c r="G32">
+        <v>-0.06815750686814016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01343718645329394</v>
+        <v>0.02700184964518586</v>
       </c>
       <c r="C33">
-        <v>-0.02675738221205359</v>
+        <v>0.04636384761397788</v>
       </c>
       <c r="D33">
-        <v>0.02158110950006612</v>
+        <v>0.01463389762409846</v>
       </c>
       <c r="E33">
-        <v>0.02299936504890911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02703344140296358</v>
+      </c>
+      <c r="F33">
+        <v>-0.02246633615156395</v>
+      </c>
+      <c r="G33">
+        <v>-0.06069726525445457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003923040605682165</v>
+        <v>0.03952605431682428</v>
       </c>
       <c r="C34">
-        <v>-0.02338309929558471</v>
+        <v>0.05730522716532192</v>
       </c>
       <c r="D34">
-        <v>0.04591215515006733</v>
+        <v>-0.004649072324131655</v>
       </c>
       <c r="E34">
-        <v>-0.006179045561872728</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004221633076784114</v>
+      </c>
+      <c r="F34">
+        <v>-0.02319692682752329</v>
+      </c>
+      <c r="G34">
+        <v>-0.04862114819339695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01304984851343909</v>
+        <v>0.01254346561845636</v>
       </c>
       <c r="C36">
-        <v>-0.02391600037048065</v>
+        <v>0.0078032403977638</v>
       </c>
       <c r="D36">
-        <v>0.002991180848941027</v>
+        <v>0.01151049223706588</v>
       </c>
       <c r="E36">
-        <v>-0.003042854577128746</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0005011240809567428</v>
+      </c>
+      <c r="F36">
+        <v>0.005502776125079389</v>
+      </c>
+      <c r="G36">
+        <v>-0.03890567667615323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003683777809665494</v>
+        <v>0.03056789563155187</v>
       </c>
       <c r="C38">
-        <v>-0.03789526491380155</v>
+        <v>0.02759784026218933</v>
       </c>
       <c r="D38">
-        <v>0.02915797055762423</v>
+        <v>-0.007497619998054521</v>
       </c>
       <c r="E38">
-        <v>-0.001955420716665476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004082672169503161</v>
+      </c>
+      <c r="F38">
+        <v>0.01098443629916917</v>
+      </c>
+      <c r="G38">
+        <v>-0.04553474642771441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005424148329806797</v>
+        <v>0.03167005713354206</v>
       </c>
       <c r="C39">
-        <v>0.01472805216498607</v>
+        <v>0.08119139441015982</v>
       </c>
       <c r="D39">
-        <v>0.09144732877554401</v>
+        <v>0.01223072066528434</v>
       </c>
       <c r="E39">
-        <v>0.007229965248263185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02187620048166011</v>
+      </c>
+      <c r="F39">
+        <v>-0.03223277640318165</v>
+      </c>
+      <c r="G39">
+        <v>-0.04380555248015735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01223947407933911</v>
+        <v>0.01949689960852443</v>
       </c>
       <c r="C40">
-        <v>-0.02408917515373839</v>
+        <v>0.03157105876271168</v>
       </c>
       <c r="D40">
-        <v>0.02967057682531294</v>
+        <v>0.01336021537843658</v>
       </c>
       <c r="E40">
-        <v>0.002299753673277227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01959076673926555</v>
+      </c>
+      <c r="F40">
+        <v>-0.01377522981861371</v>
+      </c>
+      <c r="G40">
+        <v>-0.04261897971142971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006120090996848845</v>
+        <v>0.01040963852245245</v>
       </c>
       <c r="C41">
-        <v>-0.02277153235879591</v>
+        <v>0.0006681758844561069</v>
       </c>
       <c r="D41">
-        <v>-0.009031239023696054</v>
+        <v>0.003806009720140352</v>
       </c>
       <c r="E41">
-        <v>-0.003074560735262881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002461268161885194</v>
+      </c>
+      <c r="F41">
+        <v>0.008203204153490738</v>
+      </c>
+      <c r="G41">
+        <v>-0.02672093765988324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09383039589326146</v>
+        <v>0.01456721790845945</v>
       </c>
       <c r="C42">
-        <v>-0.004419561813353406</v>
+        <v>0.04157706871795831</v>
       </c>
       <c r="D42">
-        <v>0.2689870369791204</v>
+        <v>0.09434385913024967</v>
       </c>
       <c r="E42">
-        <v>0.2823162628937583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03399667972592439</v>
+      </c>
+      <c r="F42">
+        <v>0.04294854468221484</v>
+      </c>
+      <c r="G42">
+        <v>0.162341291452075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007625950472254844</v>
+        <v>0.02931837274900562</v>
       </c>
       <c r="C43">
-        <v>-0.02759852786031868</v>
+        <v>0.01244135754281097</v>
       </c>
       <c r="D43">
-        <v>-0.01338566043758775</v>
+        <v>0.004915862242759253</v>
       </c>
       <c r="E43">
-        <v>0.003214709134468843</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008902644144512058</v>
+      </c>
+      <c r="F43">
+        <v>0.0023606326356108</v>
+      </c>
+      <c r="G43">
+        <v>-0.04055174931105515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003602046510204311</v>
+        <v>0.01638835416529184</v>
       </c>
       <c r="C44">
-        <v>-0.01015084056766339</v>
+        <v>0.04789855628744103</v>
       </c>
       <c r="D44">
-        <v>0.02657442376618598</v>
+        <v>0.006160797457428003</v>
       </c>
       <c r="E44">
-        <v>-0.001230787507413885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01645881022112423</v>
+      </c>
+      <c r="F44">
+        <v>-0.001070093938420552</v>
+      </c>
+      <c r="G44">
+        <v>-0.05844212634394968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01130297465925626</v>
+        <v>0.006338139346700036</v>
       </c>
       <c r="C46">
-        <v>-0.01949915692516704</v>
+        <v>0.01702181174350711</v>
       </c>
       <c r="D46">
-        <v>0.01091170745713423</v>
+        <v>0.01143870043183442</v>
       </c>
       <c r="E46">
-        <v>-0.002349452784595288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006630143862567477</v>
+      </c>
+      <c r="F46">
+        <v>0.01668474895068058</v>
+      </c>
+      <c r="G46">
+        <v>-0.04383795638432619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.003526907752576935</v>
+        <v>0.07616642230845046</v>
       </c>
       <c r="C47">
-        <v>-0.05839130080183948</v>
+        <v>0.06476243823621003</v>
       </c>
       <c r="D47">
-        <v>0.05677476616067118</v>
+        <v>-0.005212324991777774</v>
       </c>
       <c r="E47">
-        <v>-0.0005018699543845593</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01130820043937416</v>
+      </c>
+      <c r="F47">
+        <v>0.05526700136965557</v>
+      </c>
+      <c r="G47">
+        <v>-0.04183754998663375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003882450957960993</v>
+        <v>0.02012525241525412</v>
       </c>
       <c r="C48">
-        <v>-0.02966525627194069</v>
+        <v>0.008941702031630031</v>
       </c>
       <c r="D48">
-        <v>0.009871477618672216</v>
+        <v>0.0006702571818672501</v>
       </c>
       <c r="E48">
-        <v>-0.003726670803794588</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004998466097470719</v>
+      </c>
+      <c r="F48">
+        <v>0.01849335263621957</v>
+      </c>
+      <c r="G48">
+        <v>-0.04425051922378075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.005451700076306364</v>
+        <v>0.07888633897448252</v>
       </c>
       <c r="C50">
-        <v>-0.05609530252125675</v>
+        <v>0.06594912597683877</v>
       </c>
       <c r="D50">
-        <v>0.06150131661473417</v>
+        <v>-0.003580700608676777</v>
       </c>
       <c r="E50">
-        <v>-0.03070626813011491</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01578728964290184</v>
+      </c>
+      <c r="F50">
+        <v>0.05905446981417121</v>
+      </c>
+      <c r="G50">
+        <v>-0.06678578576659722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007671397077274871</v>
+        <v>0.01395150045878115</v>
       </c>
       <c r="C51">
-        <v>-0.02113539179856315</v>
+        <v>0.03324158975288493</v>
       </c>
       <c r="D51">
-        <v>-0.00429703180446804</v>
+        <v>0.009571739270510634</v>
       </c>
       <c r="E51">
-        <v>-0.0034965563175365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01228056329529453</v>
+      </c>
+      <c r="F51">
+        <v>-0.02971815974404701</v>
+      </c>
+      <c r="G51">
+        <v>-0.06620031519544894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.006474657154168359</v>
+        <v>0.08384692284578327</v>
       </c>
       <c r="C53">
-        <v>-0.07113391398443955</v>
+        <v>0.07906188051037197</v>
       </c>
       <c r="D53">
-        <v>0.1173417942662894</v>
+        <v>-0.004688427238208985</v>
       </c>
       <c r="E53">
-        <v>-0.009497472601906726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03476808897892896</v>
+      </c>
+      <c r="F53">
+        <v>0.06026957452022456</v>
+      </c>
+      <c r="G53">
+        <v>-0.04019809509659546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0007387383749870736</v>
+        <v>0.03211148124140861</v>
       </c>
       <c r="C54">
-        <v>-0.03633794599619511</v>
+        <v>0.01231474276070816</v>
       </c>
       <c r="D54">
-        <v>-0.00823996550100225</v>
+        <v>-0.002965856268656725</v>
       </c>
       <c r="E54">
-        <v>-0.01113071079000943</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.001054801598815251</v>
+      </c>
+      <c r="F54">
+        <v>0.005918078640808287</v>
+      </c>
+      <c r="G54">
+        <v>-0.04872175549048051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003507896077722563</v>
+        <v>0.07197780788288845</v>
       </c>
       <c r="C55">
-        <v>-0.05275813880244869</v>
+        <v>0.07073207177724986</v>
       </c>
       <c r="D55">
-        <v>0.101074254049935</v>
+        <v>-0.005171871244280999</v>
       </c>
       <c r="E55">
-        <v>0.003940492192523347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02691308707880364</v>
+      </c>
+      <c r="F55">
+        <v>0.05798244975506379</v>
+      </c>
+      <c r="G55">
+        <v>-0.02214859797369026</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.005307138365870389</v>
+        <v>0.1434609132248021</v>
       </c>
       <c r="C56">
-        <v>-0.09983184335046603</v>
+        <v>0.1052676054492538</v>
       </c>
       <c r="D56">
-        <v>0.1483852072294438</v>
+        <v>-0.01306527124306649</v>
       </c>
       <c r="E56">
-        <v>3.079460803029918e-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04000487121318123</v>
+      </c>
+      <c r="F56">
+        <v>0.08099049232909296</v>
+      </c>
+      <c r="G56">
+        <v>-0.009482279702820453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02431680033575682</v>
+        <v>0.009489822474878841</v>
       </c>
       <c r="C57">
-        <v>-0.02315703362255134</v>
+        <v>0.009412313277633999</v>
       </c>
       <c r="D57">
-        <v>0.04059945770030703</v>
+        <v>0.02355405705965158</v>
       </c>
       <c r="E57">
-        <v>0.003585673193291474</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02759480782859724</v>
+      </c>
+      <c r="F57">
+        <v>-0.01110928761930312</v>
+      </c>
+      <c r="G57">
+        <v>-0.02421228935978206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01362215836760637</v>
+        <v>0.08190221410494222</v>
       </c>
       <c r="C58">
-        <v>-0.1017441196536426</v>
+        <v>0.03260655894204085</v>
       </c>
       <c r="D58">
-        <v>0.09364569255206097</v>
+        <v>0.01641922195681187</v>
       </c>
       <c r="E58">
-        <v>0.1998169278227919</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9396388617283121</v>
+      </c>
+      <c r="F58">
+        <v>0.2454507689341528</v>
+      </c>
+      <c r="G58">
+        <v>0.02617240213436319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.0353693442201712</v>
+        <v>0.1600412157180833</v>
       </c>
       <c r="C59">
-        <v>-0.2455271791930649</v>
+        <v>-0.2112470086282842</v>
       </c>
       <c r="D59">
-        <v>-0.1759999130972108</v>
+        <v>-0.01553554028768192</v>
       </c>
       <c r="E59">
-        <v>-1.336216142581711e-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.005134224172526554</v>
+      </c>
+      <c r="F59">
+        <v>-0.006252412843500777</v>
+      </c>
+      <c r="G59">
+        <v>-0.02151982647742496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03864327113183844</v>
+        <v>0.2850699385757671</v>
       </c>
       <c r="C60">
-        <v>-0.1660479399652988</v>
+        <v>0.1022222144862844</v>
       </c>
       <c r="D60">
-        <v>0.06886124563927858</v>
+        <v>0.01257669797996492</v>
       </c>
       <c r="E60">
-        <v>0.04012706536522215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0009145872772639434</v>
+      </c>
+      <c r="F60">
+        <v>-0.3400093191562473</v>
+      </c>
+      <c r="G60">
+        <v>0.09571896854199408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003646720060248238</v>
+        <v>0.0352997978100855</v>
       </c>
       <c r="C61">
-        <v>-0.01169384709831896</v>
+        <v>0.06538196505494907</v>
       </c>
       <c r="D61">
-        <v>0.0635333955625549</v>
+        <v>0.005599319833707203</v>
       </c>
       <c r="E61">
-        <v>0.002803043069813397</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01104659781348124</v>
+      </c>
+      <c r="F61">
+        <v>-0.02119594474865737</v>
+      </c>
+      <c r="G61">
+        <v>-0.0400674259593139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00763773469341195</v>
+        <v>0.01362046302282773</v>
       </c>
       <c r="C63">
-        <v>-0.009902507472064717</v>
+        <v>0.0277404945915126</v>
       </c>
       <c r="D63">
-        <v>0.008129555786739039</v>
+        <v>0.007902071213293059</v>
       </c>
       <c r="E63">
-        <v>-0.008466650115221372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004419580002801333</v>
+      </c>
+      <c r="F63">
+        <v>0.01572589581098118</v>
+      </c>
+      <c r="G63">
+        <v>-0.04848226692064839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008248643640483704</v>
+        <v>0.05188086853941165</v>
       </c>
       <c r="C64">
-        <v>-0.03339482745662189</v>
+        <v>0.04481540225896341</v>
       </c>
       <c r="D64">
-        <v>0.06501312805962522</v>
+        <v>0.005490035175570273</v>
       </c>
       <c r="E64">
-        <v>0.01326286787174248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006536407974664009</v>
+      </c>
+      <c r="F64">
+        <v>-0.004785525642750522</v>
+      </c>
+      <c r="G64">
+        <v>-0.0330852484389149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01680565288223968</v>
+        <v>0.0841542870673965</v>
       </c>
       <c r="C65">
-        <v>-0.0121401294417517</v>
+        <v>0.05790212714650238</v>
       </c>
       <c r="D65">
-        <v>0.1006865668089077</v>
+        <v>0.01472962375662795</v>
       </c>
       <c r="E65">
-        <v>-0.007747279616351232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01742408051096084</v>
+      </c>
+      <c r="F65">
+        <v>-0.02913642199778133</v>
+      </c>
+      <c r="G65">
+        <v>-0.01605964083430766</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005322470655807095</v>
+        <v>0.0502952612088679</v>
       </c>
       <c r="C66">
-        <v>0.005827672716223357</v>
+        <v>0.1124079797993753</v>
       </c>
       <c r="D66">
-        <v>0.1189218321678945</v>
+        <v>0.01204911449914128</v>
       </c>
       <c r="E66">
-        <v>0.01934086650528011</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02692847135427173</v>
+      </c>
+      <c r="F66">
+        <v>-0.03834624478017173</v>
+      </c>
+      <c r="G66">
+        <v>-0.04072909451749585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.002628853354997278</v>
+        <v>0.05278719224161327</v>
       </c>
       <c r="C67">
-        <v>-0.05963494177209856</v>
+        <v>0.03155555645900046</v>
       </c>
       <c r="D67">
-        <v>0.03305734035801387</v>
+        <v>-0.005551959393725919</v>
       </c>
       <c r="E67">
-        <v>-0.001168641034712236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002196641518109385</v>
+      </c>
+      <c r="F67">
+        <v>0.01287569441209893</v>
+      </c>
+      <c r="G67">
+        <v>-0.04267845861414694</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05280729575249508</v>
+        <v>0.1422847442673975</v>
       </c>
       <c r="C68">
-        <v>-0.2207480881858557</v>
+        <v>-0.2710302713823478</v>
       </c>
       <c r="D68">
-        <v>-0.164464230016644</v>
+        <v>0.002677632060338424</v>
       </c>
       <c r="E68">
-        <v>0.004138394481839783</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004779797766182043</v>
+      </c>
+      <c r="F68">
+        <v>0.0310377656093575</v>
+      </c>
+      <c r="G68">
+        <v>-0.02276051263932801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001209017068458876</v>
+        <v>0.07704511956004115</v>
       </c>
       <c r="C69">
-        <v>-0.04845483988477517</v>
+        <v>0.0672255432264063</v>
       </c>
       <c r="D69">
-        <v>0.06047992982212456</v>
+        <v>-0.008882256715591477</v>
       </c>
       <c r="E69">
-        <v>-0.001250824270763922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0277061416481094</v>
+      </c>
+      <c r="F69">
+        <v>0.03887077286152587</v>
+      </c>
+      <c r="G69">
+        <v>-0.04646607408789656</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03854264368347018</v>
+        <v>0.1355626298120621</v>
       </c>
       <c r="C71">
-        <v>-0.1941219292341149</v>
+        <v>-0.2338494973305205</v>
       </c>
       <c r="D71">
-        <v>-0.1481514769613574</v>
+        <v>-0.006256446935667363</v>
       </c>
       <c r="E71">
-        <v>-0.009085308397021504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02295221542989308</v>
+      </c>
+      <c r="F71">
+        <v>0.009082460335865307</v>
+      </c>
+      <c r="G71">
+        <v>-0.03894650753874628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>5.616927483806292e-05</v>
+        <v>0.0848560352051894</v>
       </c>
       <c r="C72">
-        <v>-0.05572456293356059</v>
+        <v>0.07283531926561652</v>
       </c>
       <c r="D72">
-        <v>0.1298795549294813</v>
+        <v>-0.007898819674289638</v>
       </c>
       <c r="E72">
-        <v>0.02028788692951192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003507446090770907</v>
+      </c>
+      <c r="F72">
+        <v>-0.04643468989354213</v>
+      </c>
+      <c r="G72">
+        <v>-0.01910981016038916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05239655583724624</v>
+        <v>0.4013401256875319</v>
       </c>
       <c r="C73">
-        <v>-0.1950451846269408</v>
+        <v>0.1215851875027838</v>
       </c>
       <c r="D73">
-        <v>0.1602870741791043</v>
+        <v>0.0202139625904232</v>
       </c>
       <c r="E73">
-        <v>0.09930433987243531</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06804958279037601</v>
+      </c>
+      <c r="F73">
+        <v>-0.5529055695005048</v>
+      </c>
+      <c r="G73">
+        <v>0.1676466901757848</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.002698296324870654</v>
+        <v>0.1119111278458453</v>
       </c>
       <c r="C74">
-        <v>-0.08984290896660425</v>
+        <v>0.1150374191868602</v>
       </c>
       <c r="D74">
-        <v>0.1562831004162464</v>
+        <v>-0.01013266716654781</v>
       </c>
       <c r="E74">
-        <v>0.00715382876474048</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0178823941996457</v>
+      </c>
+      <c r="F74">
+        <v>0.07677834507641094</v>
+      </c>
+      <c r="G74">
+        <v>-0.04802929950255948</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.00973268063730227</v>
+        <v>0.250196539185137</v>
       </c>
       <c r="C75">
-        <v>-0.2004130544354008</v>
+        <v>0.1514511999346501</v>
       </c>
       <c r="D75">
-        <v>0.2768508064367309</v>
+        <v>-0.03041816629433</v>
       </c>
       <c r="E75">
-        <v>0.01697340151287049</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05861550017911167</v>
+      </c>
+      <c r="F75">
+        <v>0.1880540013781299</v>
+      </c>
+      <c r="G75">
+        <v>0.04006196617947628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001055270151989155</v>
+        <v>0.1262831210385911</v>
       </c>
       <c r="C76">
-        <v>-0.1311858056047064</v>
+        <v>0.1142977719711384</v>
       </c>
       <c r="D76">
-        <v>0.2263517053973951</v>
+        <v>-0.0212061580852822</v>
       </c>
       <c r="E76">
-        <v>-0.01148240214615092</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05017423697935672</v>
+      </c>
+      <c r="F76">
+        <v>0.1212972647083466</v>
+      </c>
+      <c r="G76">
+        <v>-0.02306009987483796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01231129850689801</v>
+        <v>0.06528131952483297</v>
       </c>
       <c r="C77">
-        <v>-0.02148596693880962</v>
+        <v>0.06077789713927798</v>
       </c>
       <c r="D77">
-        <v>0.05306861779981233</v>
+        <v>0.01220405238971114</v>
       </c>
       <c r="E77">
-        <v>0.007273860698955469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04906167664460436</v>
+      </c>
+      <c r="F77">
+        <v>-0.009447430271495482</v>
+      </c>
+      <c r="G77">
+        <v>-0.05167699371032336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004621311291642292</v>
+        <v>0.04185866209202596</v>
       </c>
       <c r="C78">
-        <v>-0.01743946000097469</v>
+        <v>0.05085848723295458</v>
       </c>
       <c r="D78">
-        <v>0.06283227865965123</v>
+        <v>0.005549269283424836</v>
       </c>
       <c r="E78">
-        <v>0.0002726611031364153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02076952808986613</v>
+      </c>
+      <c r="F78">
+        <v>-0.03900986371606413</v>
+      </c>
+      <c r="G78">
+        <v>-0.04765481233512849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01567952266368799</v>
+        <v>0.05461003354214165</v>
       </c>
       <c r="C80">
-        <v>-0.09616937264342734</v>
+        <v>0.06570307004990318</v>
       </c>
       <c r="D80">
-        <v>0.1639865848743892</v>
+        <v>0.01233326647913472</v>
       </c>
       <c r="E80">
-        <v>-0.9123749703262607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03244066308494378</v>
+      </c>
+      <c r="F80">
+        <v>-0.02183376193023654</v>
+      </c>
+      <c r="G80">
+        <v>-0.8476372335620659</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.006801913491112823</v>
+        <v>0.1444717193680018</v>
       </c>
       <c r="C81">
-        <v>-0.1229802003545176</v>
+        <v>0.09025833677841956</v>
       </c>
       <c r="D81">
-        <v>0.1641893918222575</v>
+        <v>-0.01568925062431861</v>
       </c>
       <c r="E81">
-        <v>0.0001748745830205553</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03465077129813753</v>
+      </c>
+      <c r="F81">
+        <v>0.1263542226533697</v>
+      </c>
+      <c r="G81">
+        <v>-0.02034960708749474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1040864074883947</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0539129780255677</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005215658387955816</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07806089738026385</v>
+      </c>
+      <c r="F82">
+        <v>0.01153496071932369</v>
+      </c>
+      <c r="G82">
+        <v>-0.02492775260551146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007290684636379089</v>
+        <v>0.02846691363195777</v>
       </c>
       <c r="C83">
-        <v>-0.02455327808145414</v>
+        <v>0.02315766761740437</v>
       </c>
       <c r="D83">
-        <v>0.02254102843782062</v>
+        <v>0.005990682371143209</v>
       </c>
       <c r="E83">
-        <v>0.002171412614516277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02819710306896072</v>
+      </c>
+      <c r="F83">
+        <v>-0.03569929121171804</v>
+      </c>
+      <c r="G83">
+        <v>-0.03242003835335174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01586695576460465</v>
+        <v>0.221566759854727</v>
       </c>
       <c r="C85">
-        <v>-0.1558607908766503</v>
+        <v>0.1451083890802853</v>
       </c>
       <c r="D85">
-        <v>0.2584313827585812</v>
+        <v>-0.01846607714413077</v>
       </c>
       <c r="E85">
-        <v>0.02412459267451999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09910872751130564</v>
+      </c>
+      <c r="F85">
+        <v>0.1515107036832371</v>
+      </c>
+      <c r="G85">
+        <v>0.07202293175406438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007670876540236779</v>
+        <v>0.01418592245280978</v>
       </c>
       <c r="C86">
-        <v>-0.02713481665552563</v>
+        <v>0.02040241808224455</v>
       </c>
       <c r="D86">
-        <v>0.009985952681771635</v>
+        <v>0.01092537127812458</v>
       </c>
       <c r="E86">
-        <v>0.02783002595066544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03869401721398708</v>
+      </c>
+      <c r="F86">
+        <v>-0.04738649661616545</v>
+      </c>
+      <c r="G86">
+        <v>-0.08365234334454549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007811689291886413</v>
+        <v>0.01993150842279971</v>
       </c>
       <c r="C87">
-        <v>-0.01629166216323455</v>
+        <v>0.02408930811289368</v>
       </c>
       <c r="D87">
-        <v>0.04189964198995503</v>
+        <v>0.01087586162474837</v>
       </c>
       <c r="E87">
-        <v>0.005276335758744409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08320983357978153</v>
+      </c>
+      <c r="F87">
+        <v>-0.02505094300386007</v>
+      </c>
+      <c r="G87">
+        <v>-0.06274168496512289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0275460661562905</v>
+        <v>0.09038463884510835</v>
       </c>
       <c r="C88">
-        <v>-0.03690229548374706</v>
+        <v>0.06320139229641659</v>
       </c>
       <c r="D88">
-        <v>0.03737173528138351</v>
+        <v>0.02240462615481396</v>
       </c>
       <c r="E88">
-        <v>-0.0009600026822737159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.0163748526942596</v>
+      </c>
+      <c r="F88">
+        <v>0.02285542190194226</v>
+      </c>
+      <c r="G88">
+        <v>-0.03981337637526786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07339780194730322</v>
+        <v>0.2187105311641333</v>
       </c>
       <c r="C89">
-        <v>-0.358305027504482</v>
+        <v>-0.3707677326661838</v>
       </c>
       <c r="D89">
-        <v>-0.2538882384342447</v>
+        <v>-0.005124397982499361</v>
       </c>
       <c r="E89">
-        <v>0.008189125298576115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02184772557465</v>
+      </c>
+      <c r="F89">
+        <v>0.0229593640841453</v>
+      </c>
+      <c r="G89">
+        <v>-0.03461230278249854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.05568242747625933</v>
+        <v>0.1976417845416085</v>
       </c>
       <c r="C90">
-        <v>-0.2737964108860071</v>
+        <v>-0.3305443670076196</v>
       </c>
       <c r="D90">
-        <v>-0.2263394947795724</v>
+        <v>-0.009524254247470477</v>
       </c>
       <c r="E90">
-        <v>0.01124358607408226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02252562996935336</v>
+      </c>
+      <c r="F90">
+        <v>0.04281411332184541</v>
+      </c>
+      <c r="G90">
+        <v>-0.007120014038024851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0057195493765373</v>
+        <v>0.1971668729238014</v>
       </c>
       <c r="C91">
-        <v>-0.1721531880408343</v>
+        <v>0.1348414787375661</v>
       </c>
       <c r="D91">
-        <v>0.2339101195491098</v>
+        <v>-0.02419980805855831</v>
       </c>
       <c r="E91">
-        <v>0.003134544456497595</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07401604886589411</v>
+      </c>
+      <c r="F91">
+        <v>0.1600439013442997</v>
+      </c>
+      <c r="G91">
+        <v>-0.005515339418361865</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02296559585737792</v>
+        <v>0.2036580230827075</v>
       </c>
       <c r="C92">
-        <v>-0.3096816438620454</v>
+        <v>-0.2640012848196074</v>
       </c>
       <c r="D92">
-        <v>-0.1097742090561009</v>
+        <v>-0.04556141976217559</v>
       </c>
       <c r="E92">
-        <v>0.0007431136763142992</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003850189957255109</v>
+      </c>
+      <c r="F92">
+        <v>0.06471964133343124</v>
+      </c>
+      <c r="G92">
+        <v>-0.07792660533143114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05420526899743993</v>
+        <v>0.2260981009153336</v>
       </c>
       <c r="C93">
-        <v>-0.3060752847018268</v>
+        <v>-0.3248147618136817</v>
       </c>
       <c r="D93">
-        <v>-0.223316020350513</v>
+        <v>-0.01633038851710867</v>
       </c>
       <c r="E93">
-        <v>0.03065142328014075</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009010212236751644</v>
+      </c>
+      <c r="F93">
+        <v>0.03726458218327235</v>
+      </c>
+      <c r="G93">
+        <v>-0.006523888791098794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02872809982728334</v>
+        <v>0.3001329827253005</v>
       </c>
       <c r="C94">
-        <v>-0.202936939499634</v>
+        <v>0.1775945011946282</v>
       </c>
       <c r="D94">
-        <v>0.2389026889229781</v>
+        <v>-0.01652680927910074</v>
       </c>
       <c r="E94">
-        <v>0.04474924393978318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1605474378004726</v>
+      </c>
+      <c r="F94">
+        <v>0.4858718998694192</v>
+      </c>
+      <c r="G94">
+        <v>0.2034212768486391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004608148595236162</v>
+        <v>0.0862529721654002</v>
       </c>
       <c r="C95">
-        <v>-0.04674659379349325</v>
+        <v>0.08653290246995693</v>
       </c>
       <c r="D95">
-        <v>0.09148465463418827</v>
+        <v>-0.006636181119597944</v>
       </c>
       <c r="E95">
-        <v>0.1078191763733251</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07557753063810502</v>
+      </c>
+      <c r="F95">
+        <v>-0.1943658449983262</v>
+      </c>
+      <c r="G95">
+        <v>0.06930155318674251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01295135716159132</v>
+        <v>0.1987186337101608</v>
       </c>
       <c r="C98">
-        <v>-0.1679556278372375</v>
+        <v>0.04534564133708648</v>
       </c>
       <c r="D98">
-        <v>0.1127378812203343</v>
+        <v>-0.01271811820308781</v>
       </c>
       <c r="E98">
-        <v>0.06008587488551083</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06931692017349879</v>
+      </c>
+      <c r="F98">
+        <v>-0.2445333182615136</v>
+      </c>
+      <c r="G98">
+        <v>0.02819192039263932</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007916835055991844</v>
+        <v>0.01075438443177958</v>
       </c>
       <c r="C101">
-        <v>-0.01972813790791374</v>
+        <v>0.01911006002102663</v>
       </c>
       <c r="D101">
-        <v>0.009443131820076943</v>
+        <v>0.007147398437495047</v>
       </c>
       <c r="E101">
-        <v>-0.008665639606184996</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008599974019938157</v>
+      </c>
+      <c r="F101">
+        <v>0.01434879946142629</v>
+      </c>
+      <c r="G101">
+        <v>-0.04572011711700108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01732486320963227</v>
+        <v>0.1203042032150538</v>
       </c>
       <c r="C102">
-        <v>-0.08895004244778207</v>
+        <v>0.08298097278971671</v>
       </c>
       <c r="D102">
-        <v>0.1222118907846137</v>
+        <v>0.001238680261890172</v>
       </c>
       <c r="E102">
-        <v>0.00961476877233648</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03151634348572615</v>
+      </c>
+      <c r="F102">
+        <v>0.04286252848180173</v>
+      </c>
+      <c r="G102">
+        <v>0.00154816371410572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001525001876870204</v>
+        <v>0.003399257102687968</v>
       </c>
       <c r="C103">
-        <v>-0.01136760155654428</v>
+        <v>0.004650380248751597</v>
       </c>
       <c r="D103">
-        <v>0.02568998583998499</v>
+        <v>0.0001136361710200895</v>
       </c>
       <c r="E103">
-        <v>-0.01559945925369415</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001902501747002037</v>
+      </c>
+      <c r="F103">
+        <v>0.009178657150680378</v>
+      </c>
+      <c r="G103">
+        <v>-0.01606682966724619</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.978650794450411</v>
+        <v>0.02756787596335049</v>
       </c>
       <c r="C104">
-        <v>0.1549884326165162</v>
+        <v>-0.03841474164097832</v>
       </c>
       <c r="D104">
-        <v>-0.002851158449809476</v>
+        <v>0.987367501062769</v>
       </c>
       <c r="E104">
-        <v>-0.02647473671829779</v>
+        <v>-0.04086765988564144</v>
+      </c>
+      <c r="F104">
+        <v>0.04267530366396299</v>
+      </c>
+      <c r="G104">
+        <v>0.01300951761533882</v>
       </c>
     </row>
   </sheetData>
